--- a/va_facility_data_2025-02-20/Grafton VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Grafton%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Grafton VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Grafton%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rc1ec48c72e494fd18d60fd5f7f57485e"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R14dfcafced51459d879c5c7d8d67c7e9"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R289206cbfdbb43a0883270ddaa435c31"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R5df251b09fe043b898c29f5a3f69b137"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra37a41c05dc74ec2876cc814260984d8"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7bd3dc99b6b44831bf9e3e79c1901927"/>
   </x:sheets>
 </x:workbook>
 </file>
